--- a/Correios/A-Entrada/exemplo_4.xlsx
+++ b/Correios/A-Entrada/exemplo_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gst_9\Documents\bpa\Correios\A-Entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6777B0-D016-4FEB-8806-9FD369F1C972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA8D2D-C72C-4934-97FD-6EEC99E0D215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>CEP</t>
-  </si>
-  <si>
-    <t>96784-346</t>
-  </si>
-  <si>
-    <t>Rua Brinco de Princesa</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>rua varginha daniel fonseca uberlandia</t>
-  </si>
-  <si>
-    <t>a33</t>
-  </si>
-  <si>
-    <t>a##</t>
-  </si>
-  <si>
-    <t>sp</t>
+    <t>agssgasgsagsagsaadg</t>
   </si>
 </sst>
 </file>
@@ -92,10 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,71 +367,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>3840033</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>38400322</v>
+      <c r="B2">
+        <v>37000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>38400322</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>38400322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="C3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
